--- a/HinhTron_Test_17_Phong_18_Sang/bin/Debug/Data_17_Phong_18_Sang/DataExcel_17_Phong_18_Sang.xlsx
+++ b/HinhTron_Test_17_Phong_18_Sang/bin/Debug/Data_17_Phong_18_Sang/DataExcel_17_Phong_18_Sang.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiểm thử phần mềm\Kiem_Thu_Phan_Mem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5EED5D-84B6-4F36-B8E0-B120CC4D6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF4839-A24C-4900-9E1F-49E3D972C68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KiemTraHinhTron" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,21 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>giatri</t>
-  </si>
-  <si>
-    <t>loai</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>cv</t>
   </si>
   <si>
     <t>dt</t>
+  </si>
+  <si>
+    <t>loai_17_Phong_18_Sang</t>
+  </si>
+  <si>
+    <t>giaTri_17_Phong_18_Sang</t>
+  </si>
+  <si>
+    <t>tinh_17_Phong_18_Sang</t>
+  </si>
+  <si>
+    <t>ketQuaMongDoi_17_Phong_18_Sang</t>
+  </si>
+  <si>
+    <t>bk</t>
+  </si>
+  <si>
+    <t>dk</t>
   </si>
 </sst>
 </file>
@@ -357,67 +366,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3">
+        <v>78.540000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>12.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>78.540000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>45.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>23.76</v>
       </c>
     </row>
   </sheetData>
